--- a/Excel/StatusConfig.xlsx
+++ b/Excel/StatusConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="27810" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -22,19 +22,28 @@
     <t>Id</t>
   </si>
   <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>技能类型</t>
-  </si>
-  <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>技能描述</t>
-  </si>
-  <si>
-    <t>效果</t>
+    <t>状态ID</t>
+  </si>
+  <si>
+    <t>状态名称</t>
+  </si>
+  <si>
+    <t>状态类型</t>
+  </si>
+  <si>
+    <t>显示在状态栏</t>
+  </si>
+  <si>
+    <t>状态描述</t>
+  </si>
+  <si>
+    <t>行为禁制</t>
+  </si>
+  <si>
+    <t>属性修饰</t>
+  </si>
+  <si>
+    <t>StatusID</t>
   </si>
   <si>
     <t>Name</t>
@@ -43,13 +52,28 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Cooldown</t>
+    <t>StatusSlot</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>CustomEffects</t>
+    <t>ActionControl</t>
+  </si>
+  <si>
+    <t>AttributeType</t>
+  </si>
+  <si>
+    <t>AttributeParams</t>
+  </si>
+  <si>
+    <t>Effect1</t>
+  </si>
+  <si>
+    <t>Effect2</t>
+  </si>
+  <si>
+    <t>Effect3</t>
   </si>
   <si>
     <t>int</t>
@@ -58,19 +82,25 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>黑火球术</t>
-  </si>
-  <si>
-    <t>主动</t>
-  </si>
-  <si>
-    <t>黑火球术: 净化</t>
-  </si>
-  <si>
-    <t>净化</t>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>Debuff</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>移动禁止|施法禁止|攻击禁止</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Add|法术强度*0.2</t>
   </si>
 </sst>
 </file>
@@ -78,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -105,10 +135,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,6 +150,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -137,6 +241,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -145,112 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,38 +498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,8 +507,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +549,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -552,161 +578,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,21 +1095,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="47.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.375" style="2" customWidth="1"/>
+    <col min="12" max="14" width="15.25" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1087,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:14">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1106,71 +1140,134 @@
       <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:14">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:14">
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" s="1" customFormat="1" spans="3:11">
       <c r="C6" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"主动,被动"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
+      <formula1>"Buff,Debuff"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6">
+      <formula1>"无,攻击力,护甲值,法术强度"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StatusConfig.xlsx
+++ b/Excel/StatusConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\遗弃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C016AB-7274-4FD3-9F54-6ABAD58B366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270FBBAA-544A-42F2-BA4D-70366E02DBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="2865" windowWidth="26100" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -97,59 +97,123 @@
     <t>string</t>
   </si>
   <si>
+    <t>Debuff</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>移动禁止|施法禁止|攻击禁止</t>
+  </si>
+  <si>
+    <t>攻击力修饰</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>Add=变动数值</t>
+  </si>
+  <si>
+    <t>攻击力百分比修饰</t>
+  </si>
+  <si>
+    <t>PercentAdd=变动数值</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>虚弱</t>
+  </si>
+  <si>
+    <t>Tenacity</t>
+  </si>
+  <si>
+    <t>坚韧</t>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Cure=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Vertigo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>眩晕</t>
-  </si>
-  <si>
-    <t>Debuff</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>移动禁止|施法禁止|攻击禁止</t>
-  </si>
-  <si>
-    <t>AttackPowerModify</t>
-  </si>
-  <si>
-    <t>攻击力修饰</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>Add=变动数值</t>
-  </si>
-  <si>
-    <t>AttackPowerPctModify</t>
-  </si>
-  <si>
-    <t>攻击力百分比修饰</t>
-  </si>
-  <si>
-    <t>PercentAdd=变动数值</t>
-  </si>
-  <si>
-    <t>Weak</t>
-  </si>
-  <si>
-    <t>虚弱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackModify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPctModify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通灼烧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CauseDamagePctModify</t>
+  </si>
+  <si>
+    <t>MoveSpeedPctModify</t>
+  </si>
+  <si>
+    <t>移动速度百分比修饰</t>
+  </si>
+  <si>
+    <t>造成伤害百分比修饰</t>
+  </si>
+  <si>
+    <t>造成伤害</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>Damage=Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +237,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -203,87 +281,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -303,7 +319,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -582,23 +598,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
     <col min="7" max="8" width="11" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="23.375" style="2" customWidth="1"/>
     <col min="13" max="15" width="15.25" style="2" customWidth="1"/>
@@ -731,114 +747,212 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="1">
+        <v>201</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>29</v>
+      <c r="M12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="1">
+        <v>202</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K7 K8 K9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F13" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>"Buff,Debuff,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K7 K10:K13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"无,攻击力,护甲值,法术强度"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Buff,Debuff"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 H6 G7 H7 G8 H8 G9 H9" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H13" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F8 F9" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>"Buff,Debuff,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K9" xr:uid="{5FB66C6A-F742-4067-9E27-3FAB0B22BECE}">
+      <formula1>"无,攻击力,护甲值,法术强度,造成伤害,移动速度"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/StatusConfig.xlsx
+++ b/Excel/StatusConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270FBBAA-544A-42F2-BA4D-70366E02DBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368770CE-C1D5-48D0-8DF2-C2435DC01F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="2865" windowWidth="26100" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -147,22 +147,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Cure=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Id</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Vertigo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -205,15 +189,15 @@
     <t>移动速度</t>
   </si>
   <si>
-    <t>Damage=Id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,13 +231,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -281,16 +258,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,6 +274,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -319,7 +361,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -601,7 +643,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -747,8 +789,8 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -773,8 +815,8 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>45</v>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -799,11 +841,11 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>30</v>
@@ -815,7 +857,7 @@
         <v>27</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>34</v>
@@ -825,11 +867,11 @@
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>30</v>
@@ -841,7 +883,7 @@
         <v>27</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
@@ -852,10 +894,10 @@
         <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>25</v>
@@ -869,6 +911,7 @@
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
@@ -889,6 +932,12 @@
       <c r="H11" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="M11" s="1">
+        <v>203</v>
+      </c>
+      <c r="N11" s="1">
+        <v>204</v>
+      </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="1">
@@ -910,7 +959,7 @@
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -918,10 +967,10 @@
         <v>202</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -933,7 +982,7 @@
         <v>40</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StatusConfig.xlsx
+++ b/Excel/StatusConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368770CE-C1D5-48D0-8DF2-C2435DC01F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19EA708-6DBF-4F02-B516-0F3FFAB92AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -190,6 +190,31 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthRecovery</t>
+  </si>
+  <si>
+    <t>生命回复</t>
+  </si>
+  <si>
+    <t>Mute</t>
+  </si>
+  <si>
+    <t>沉默</t>
+  </si>
+  <si>
+    <t>Scare</t>
+  </si>
+  <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>护盾</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -274,74 +299,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -361,7 +318,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -640,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -915,16 +872,16 @@
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
-        <v>200</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>26</v>
@@ -932,45 +889,36 @@
       <c r="H11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="1">
-        <v>203</v>
-      </c>
-      <c r="N11" s="1">
-        <v>204</v>
-      </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="1">
-        <v>201</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="1">
-        <v>202</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -979,26 +927,115 @@
         <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="1">
+        <v>104</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="1">
+        <v>200</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1">
+        <v>203</v>
+      </c>
+      <c r="N15" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="1">
+        <v>201</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M16" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="1">
+        <v>202</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F13" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K7 K10 K15:K17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"无,攻击力,护甲值,法术强度"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K9 K11:K14" xr:uid="{5FB66C6A-F742-4067-9E27-3FAB0B22BECE}">
+      <formula1>"无,攻击力,护甲值,法术强度,造成伤害,移动速度"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Buff,Debuff,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K7 K10:K13" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"无,攻击力,护甲值,法术强度"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H13" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K9" xr:uid="{5FB66C6A-F742-4067-9E27-3FAB0B22BECE}">
-      <formula1>"无,攻击力,护甲值,法术强度,造成伤害,移动速度"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StatusConfig.xlsx
+++ b/Excel/StatusConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19EA708-6DBF-4F02-B516-0F3FFAB92AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BBFAAD-AEF5-45B2-B6C6-67035541D5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -216,6 +216,15 @@
   <si>
     <t>护盾</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HellAngel</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>QiangTi</t>
   </si>
 </sst>
 </file>
@@ -299,6 +308,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -318,7 +395,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -597,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1022,6 +1099,66 @@
         <v>53</v>
       </c>
     </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>203</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>204</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>205</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -1031,10 +1168,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K9 K11:K14" xr:uid="{5FB66C6A-F742-4067-9E27-3FAB0B22BECE}">
       <formula1>"无,攻击力,护甲值,法术强度,造成伤害,移动速度"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F20" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Buff,Debuff,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H20" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/StatusConfig.xlsx
+++ b/Excel/StatusConfig.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BBFAAD-AEF5-45B2-B6C6-67035541D5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -46,15 +53,6 @@
     <t>状态描述</t>
   </si>
   <si>
-    <t>行为禁制</t>
-  </si>
-  <si>
-    <t>属性修饰</t>
-  </si>
-  <si>
-    <t>修饰参数</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -73,58 +71,79 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ActionControl</t>
-  </si>
-  <si>
-    <t>AttributeType</t>
-  </si>
-  <si>
-    <t>AttributeParams</t>
-  </si>
-  <si>
-    <t>Effect1</t>
-  </si>
-  <si>
-    <t>Effect2</t>
-  </si>
-  <si>
-    <t>Effect3</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>AttackModify</t>
+  </si>
+  <si>
+    <t>攻击力修饰</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>AttackPctModify</t>
+  </si>
+  <si>
+    <t>攻击力百分比修饰</t>
+  </si>
+  <si>
+    <t>CauseDamagePctModify</t>
+  </si>
+  <si>
+    <t>造成伤害百分比修饰</t>
+  </si>
+  <si>
+    <t>MoveSpeedPctModify</t>
+  </si>
+  <si>
+    <t>移动速度百分比修饰</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
     <t>Debuff</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>移动禁止|施法禁止|攻击禁止</t>
-  </si>
-  <si>
-    <t>攻击力修饰</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>Add=变动数值</t>
-  </si>
-  <si>
-    <t>攻击力百分比修饰</t>
-  </si>
-  <si>
-    <t>PercentAdd=变动数值</t>
+    <t>HealthRecovery</t>
+  </si>
+  <si>
+    <t>生命回复</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>Mute</t>
+  </si>
+  <si>
+    <t>沉默</t>
+  </si>
+  <si>
+    <t>Scare</t>
+  </si>
+  <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>护盾</t>
   </si>
   <si>
     <t>Weak</t>
@@ -139,83 +158,10 @@
     <t>坚韧</t>
   </si>
   <si>
-    <t>Buff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vertigo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackModify</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackPctModify</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Burn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>普通灼烧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CauseDamagePctModify</t>
-  </si>
-  <si>
-    <t>MoveSpeedPctModify</t>
-  </si>
-  <si>
-    <t>移动速度百分比修饰</t>
-  </si>
-  <si>
-    <t>造成伤害百分比修饰</t>
-  </si>
-  <si>
-    <t>造成伤害</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealthRecovery</t>
-  </si>
-  <si>
-    <t>生命回复</t>
-  </si>
-  <si>
-    <t>Mute</t>
-  </si>
-  <si>
-    <t>沉默</t>
-  </si>
-  <si>
-    <t>Scare</t>
-  </si>
-  <si>
-    <t>恐惧</t>
-  </si>
-  <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>HellAngel</t>
@@ -230,8 +176,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,19 +206,156 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +368,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -288,9 +563,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -299,89 +816,65 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -395,7 +888,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -668,19 +1161,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
@@ -690,19 +1183,15 @@
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
     <col min="7" max="8" width="11" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="15.25" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -724,458 +1213,364 @@
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:8">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:8">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:8">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:8">
       <c r="C10" s="1">
         <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:8">
       <c r="C11" s="1">
         <v>101</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:8">
       <c r="C12" s="1">
         <v>102</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:8">
       <c r="C13" s="1">
         <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:8">
       <c r="C14" s="1">
         <v>104</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:8">
       <c r="C15" s="1">
         <v>200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="1">
-        <v>203</v>
-      </c>
-      <c r="N15" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:8">
       <c r="C16" s="1">
         <v>201</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:8">
       <c r="C17" s="1">
         <v>202</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="1">
         <v>203</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
       <c r="C19" s="1">
         <v>204</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="1">
         <v>205</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K7 K10 K15:K17" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"无,攻击力,护甲值,法术强度"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K9 K11:K14" xr:uid="{5FB66C6A-F742-4067-9E27-3FAB0B22BECE}">
-      <formula1>"无,攻击力,护甲值,法术强度,造成伤害,移动速度"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F20" xr:uid="{00000000-0002-0000-0000-000003000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F20">
       <formula1>"Buff,Debuff,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H20" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H20">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>